--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.60945095060168</v>
+        <v>10668.28073916979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.60945095060168</v>
+        <v>10668.28073916979</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77415.72552369788</v>
+        <v>5168698.673855688</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77415.72552369788</v>
+        <v>5168698.673855688</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037590772.024444</v>
+        <v>40569010.0933324</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12702.47112092144</v>
+        <v>1199649.708081486</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22852.58449875546</v>
+        <v>1957617.738211106</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33007.04888080627</v>
+        <v>2715585.768340726</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43367.87101418785</v>
+        <v>3472794.100927494</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53728.69314756945</v>
+        <v>4230002.433514261</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64089.51528095105</v>
+        <v>4987210.766101027</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74450.30845805805</v>
+        <v>5744419.098687788</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84811.12740509649</v>
+        <v>6501627.43127455</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95177.89616256296</v>
+        <v>7257759.486290487</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105546.6561282076</v>
+        <v>8014287.791733881</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115915.4160938522</v>
+        <v>8770816.097177278</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126284.1760594969</v>
+        <v>9527344.402620677</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136652.9360251415</v>
+        <v>10283872.70806408</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147021.6959907861</v>
+        <v>11040401.01350749</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157390.4559564308</v>
+        <v>11796929.31895089</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
